--- a/global/PlayerLevelup.xlsx
+++ b/global/PlayerLevelup.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="PlayerLevelup" sheetId="1" r:id="rId4"/>
+    <sheet name="PlayerLevelup" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -50,33 +53,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,17 +235,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -106,42 +441,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -149,28 +458,68 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -178,99 +527,317 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -396,7 +963,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -405,7 +972,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -414,7 +981,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -488,13 +1055,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -514,8 +1080,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -544,8 +1109,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -570,8 +1134,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -596,8 +1159,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -622,8 +1184,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -648,8 +1209,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,8 +1234,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -700,8 +1259,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,8 +1284,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,8 +1309,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,9 +1322,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -783,13 +1345,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -809,8 +1370,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,8 +1395,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,8 +1420,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,8 +1445,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,8 +1470,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,8 +1495,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,8 +1520,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,8 +1545,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,8 +1570,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,8 +1595,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,9 +1608,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1070,8 +1627,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1091,8 +1646,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,8 +1675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,8 +1700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,8 +1725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,8 +1750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,8 +1775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,8 +1800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,8 +1825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,8 +1850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,8 +1875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,9 +1888,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1354,131 +1905,899 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
+    <col min="5" max="16382" width="6" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="14" customHeight="1">
+    <row r="2" ht="14" customHeight="1" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:4">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1">
+      <c r="D8" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1">
+      <c r="D9" s="1">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" ht="16.15" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="D10" s="1">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="11" ht="16.15" customHeight="1" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:4">
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:4">
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:4">
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:4">
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7351</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:4">
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9462</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:4">
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11901</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:4">
+      <c r="C18" s="5">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14678</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:4">
+      <c r="C19" s="5">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17805</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:4">
+      <c r="C20" s="5">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21289</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:4">
+      <c r="C21" s="5">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>25140</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:4">
+      <c r="C22" s="5">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>29365</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:4">
+      <c r="C23" s="5">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>33973</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:4">
+      <c r="C24" s="5">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38972</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:4">
+      <c r="C25" s="5">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:4">
+      <c r="C26" s="5">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>50167</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:4">
+      <c r="C27" s="5">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>56378</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:4">
+      <c r="C28" s="5">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>63006</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:4">
+      <c r="C29" s="5">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1">
+        <v>70057</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:4">
+      <c r="C30" s="5">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
+        <v>77538</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:4">
+      <c r="C31" s="5">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1">
+        <v>85453</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:4">
+      <c r="C32" s="5">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1">
+        <v>93809</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:4">
+      <c r="C33" s="5">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1">
+        <v>102611</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:4">
+      <c r="C34" s="5">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1">
+        <v>111865</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:4">
+      <c r="C35" s="5">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1">
+        <v>121575</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:4">
+      <c r="C36" s="5">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1">
+        <v>131746</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:4">
+      <c r="C37" s="5">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1">
+        <v>142384</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:4">
+      <c r="C38" s="5">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1">
+        <v>153493</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:4">
+      <c r="C39" s="5">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1">
+        <v>165078</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:4">
+      <c r="C40" s="5">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1">
+        <v>177143</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:4">
+      <c r="C41" s="5">
+        <v>35</v>
+      </c>
+      <c r="D41" s="1">
+        <v>189693</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:4">
+      <c r="C42" s="5">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1">
+        <v>202732</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:4">
+      <c r="C43" s="5">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1">
+        <v>216264</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:4">
+      <c r="C44" s="5">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1">
+        <v>230295</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:4">
+      <c r="C45" s="5">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1">
+        <v>244827</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:4">
+      <c r="C46" s="5">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1">
+        <v>259864</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:4">
+      <c r="C47" s="5">
+        <v>41</v>
+      </c>
+      <c r="D47" s="1">
+        <v>275412</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:4">
+      <c r="C48" s="5">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1">
+        <v>291473</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:4">
+      <c r="C49" s="5">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1">
+        <v>308051</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:4">
+      <c r="C50" s="5">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>325151</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:4">
+      <c r="C51" s="5">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1">
+        <v>342775</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:4">
+      <c r="C52" s="5">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1">
+        <v>360928</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:4">
+      <c r="C53" s="5">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>379613</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:4">
+      <c r="C54" s="5">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1">
+        <v>398834</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:4">
+      <c r="C55" s="5">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1">
+        <v>418593</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:4">
+      <c r="C56" s="5">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1">
+        <v>438896</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:4">
+      <c r="C57" s="5">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1">
+        <v>459744</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:4">
+      <c r="C58" s="5">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1">
+        <v>481141</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:4">
+      <c r="C59" s="5">
+        <v>53</v>
+      </c>
+      <c r="D59" s="1">
+        <v>503091</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:4">
+      <c r="C60" s="5">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1">
+        <v>525596</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:4">
+      <c r="C61" s="5">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1">
+        <v>548660</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:4">
+      <c r="C62" s="5">
+        <v>56</v>
+      </c>
+      <c r="D62" s="1">
+        <v>572286</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:4">
+      <c r="C63" s="5">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1">
+        <v>596478</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:4">
+      <c r="C64" s="5">
+        <v>58</v>
+      </c>
+      <c r="D64" s="1">
+        <v>621237</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:4">
+      <c r="C65" s="5">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1">
+        <v>646568</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:4">
+      <c r="C66" s="5">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1">
+        <v>672473</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:4">
+      <c r="C67" s="5">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1">
+        <v>698955</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:4">
+      <c r="C68" s="5">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1">
+        <v>726017</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:4">
+      <c r="C69" s="5">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1">
+        <v>753662</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:4">
+      <c r="C70" s="5">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1">
+        <v>781892</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:4">
+      <c r="C71" s="5">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1">
+        <v>810712</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:4">
+      <c r="C72" s="5">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1">
+        <v>840122</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:4">
+      <c r="C73" s="5">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1">
+        <v>870127</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:4">
+      <c r="C74" s="5">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1">
+        <v>900729</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:4">
+      <c r="C75" s="5">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1">
+        <v>931930</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:4">
+      <c r="C76" s="5">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1">
+        <v>963734</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:4">
+      <c r="C77" s="5">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1">
+        <v>996142</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:4">
+      <c r="C78" s="5">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1029158</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:4">
+      <c r="C79" s="5">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1062784</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:4">
+      <c r="C80" s="5">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1097023</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:4">
+      <c r="C81" s="5">
+        <v>75</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1131877</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:4">
+      <c r="C82" s="5">
+        <v>76</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1167348</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:4">
+      <c r="C83" s="5">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1203440</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:4">
+      <c r="C84" s="5">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1240154</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:4">
+      <c r="C85" s="5">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1277494</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:4">
+      <c r="C86" s="5">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1315461</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:4">
+      <c r="C87" s="5">
+        <v>81</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1354058</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:4">
+      <c r="C88" s="5">
+        <v>82</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1393288</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:4">
+      <c r="C89" s="5">
+        <v>83</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1433152</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:4">
+      <c r="C90" s="5">
+        <v>84</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1473653</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:4">
+      <c r="C91" s="5">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1514793</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:4">
+      <c r="C92" s="5">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1556576</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:4">
+      <c r="C93" s="5">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1599002</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:4">
+      <c r="C94" s="5">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1642074</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:4">
+      <c r="C95" s="5">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1685795</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:4">
+      <c r="C96" s="5">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1730166</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:4">
+      <c r="C97" s="5">
+        <v>91</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1775191</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:4">
+      <c r="C98" s="5">
+        <v>92</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1820870</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:4">
+      <c r="C99" s="5">
+        <v>93</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1867207</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:4">
+      <c r="C100" s="5">
+        <v>94</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1914203</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:4">
+      <c r="C101" s="5">
+        <v>95</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1961860</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:4">
+      <c r="C102" s="5">
+        <v>96</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2010181</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:4">
+      <c r="C103" s="5">
+        <v>97</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2059168</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:4">
+      <c r="C104" s="5">
+        <v>98</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2108823</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:4">
+      <c r="C105" s="5">
+        <v>99</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2159148</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:4">
+      <c r="C106" s="5">
+        <v>100</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2210145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/global/PlayerLevelup.xlsx
+++ b/global/PlayerLevelup.xlsx
@@ -19,7 +19,7 @@
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>等级</t>
+    <t>账号等级</t>
   </si>
   <si>
     <t>升到此级所需经验值</t>
@@ -37,7 +37,7 @@
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>经验</t>
+    <t>账号经验</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,6 +77,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -90,6 +104,76 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,10 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,85 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +224,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -246,25 +246,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,43 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,109 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -475,36 +490,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +520,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -555,148 +555,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>

--- a/global/PlayerLevelup.xlsx
+++ b/global/PlayerLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,7 +22,10 @@
     <t>账号等级</t>
   </si>
   <si>
-    <t>升到此级所需经验值</t>
+    <t>升到此级所需累计经验值</t>
+  </si>
+  <si>
+    <t>升级奖励id：体力值奖励</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -34,10 +37,16 @@
     <t>exp</t>
   </si>
   <si>
+    <t>lootId</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
     <t>账号经验</t>
+  </si>
+  <si>
+    <t>升级奖励</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -54,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,56 +86,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,15 +106,82 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,39 +197,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,15 +218,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,19 +255,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,163 +399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +464,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -466,15 +504,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +523,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,17 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,179 +561,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1092,7 +1102,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1658,7 +1668,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1907,19 +1917,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E7" sqref="E7:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
-    <col min="5" max="16382" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7666666666667" style="1" customWidth="1"/>
+    <col min="6" max="16382" width="6" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
@@ -1931,7 +1942,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="14" customHeight="1" spans="1:4">
+    <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1940,52 +1951,65 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -1994,809 +2018,1109 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:4">
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="11" ht="16.15" customHeight="1" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="16.15" customHeight="1" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:4">
+        <v>87</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:4">
+        <v>137</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:4">
+        <v>241</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>5557</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:4">
+        <v>381</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>7351</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:4">
+        <v>563</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>9462</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:4">
+        <v>794</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="5">
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>11901</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:4">
+        <v>1081</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
       <c r="C18" s="5">
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>14678</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
+        <v>1547</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
       <c r="C19" s="5">
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>17805</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
+        <v>2107</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
       <c r="C20" s="5">
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>21289</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
+        <v>2771</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="5">
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>25140</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
+        <v>3548</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="5">
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>29365</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
+        <v>4449</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="5">
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>33973</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
+        <v>5484</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="5">
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>38972</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
+        <v>6663</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:5">
       <c r="C25" s="5">
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>44368</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:4">
+        <v>7997</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="5">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>50167</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:4">
+        <v>9497</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="5">
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>56378</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:4">
+        <v>11174</v>
+      </c>
+      <c r="E27" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="5">
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>63006</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
+        <v>13038</v>
+      </c>
+      <c r="E28" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="5">
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>70057</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:4">
+        <v>15101</v>
+      </c>
+      <c r="E29" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="5">
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>77538</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
+        <v>17373</v>
+      </c>
+      <c r="E30" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:5">
       <c r="C31" s="5">
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>85453</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
+        <v>19866</v>
+      </c>
+      <c r="E31" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:5">
       <c r="C32" s="5">
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>93809</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:4">
+        <v>23273</v>
+      </c>
+      <c r="E32" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="5">
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>102611</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:4">
+        <v>26984</v>
+      </c>
+      <c r="E33" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="5">
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>111865</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:4">
+        <v>31014</v>
+      </c>
+      <c r="E34" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="5">
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>121575</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:4">
+        <v>35378</v>
+      </c>
+      <c r="E35" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="5">
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>131746</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:4">
+        <v>40090</v>
+      </c>
+      <c r="E36" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="5">
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>142384</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:4">
+        <v>45164</v>
+      </c>
+      <c r="E37" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="5">
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>153493</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:4">
+        <v>51706</v>
+      </c>
+      <c r="E38" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="5">
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>165078</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:4">
+        <v>58719</v>
+      </c>
+      <c r="E39" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="5">
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>177143</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:4">
+        <v>66221</v>
+      </c>
+      <c r="E40" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
       <c r="C41" s="5">
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>189693</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:4">
+        <v>74230</v>
+      </c>
+      <c r="E41" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
       <c r="C42" s="5">
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>202732</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:4">
+        <v>82764</v>
+      </c>
+      <c r="E42" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
       <c r="C43" s="5">
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>216264</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:4">
+        <v>91842</v>
+      </c>
+      <c r="E43" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:5">
       <c r="C44" s="5">
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>230295</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:4">
+        <v>101482</v>
+      </c>
+      <c r="E44" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:5">
       <c r="C45" s="5">
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>244827</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:4">
+        <v>111702</v>
+      </c>
+      <c r="E45" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
       <c r="C46" s="5">
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>259864</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:4">
+        <v>122521</v>
+      </c>
+      <c r="E46" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:5">
       <c r="C47" s="5">
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>275412</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:4">
+        <v>133958</v>
+      </c>
+      <c r="E47" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
       <c r="C48" s="5">
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>291473</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:4">
+        <v>148044</v>
+      </c>
+      <c r="E48" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
       <c r="C49" s="5">
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>308051</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:4">
+        <v>162895</v>
+      </c>
+      <c r="E49" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:5">
       <c r="C50" s="5">
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>325151</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:4">
+        <v>178533</v>
+      </c>
+      <c r="E50" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:5">
       <c r="C51" s="5">
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>342775</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:4">
+        <v>194980</v>
+      </c>
+      <c r="E51" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:5">
       <c r="C52" s="5">
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>360928</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:4">
+        <v>212258</v>
+      </c>
+      <c r="E52" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:5">
       <c r="C53" s="5">
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>379613</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:4">
+        <v>232981</v>
+      </c>
+      <c r="E53" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:5">
       <c r="C54" s="5">
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>398834</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:4">
+        <v>254706</v>
+      </c>
+      <c r="E54" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:5">
       <c r="C55" s="5">
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>418593</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:4">
+        <v>277458</v>
+      </c>
+      <c r="E55" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:5">
       <c r="C56" s="5">
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>438896</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:4">
+        <v>304240</v>
+      </c>
+      <c r="E56" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:5">
       <c r="C57" s="5">
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>459744</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:4">
+        <v>332237</v>
+      </c>
+      <c r="E57" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:5">
       <c r="C58" s="5">
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>481141</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:4">
+        <v>364727</v>
+      </c>
+      <c r="E58" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
       <c r="C59" s="5">
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>503091</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:4">
+        <v>398633</v>
+      </c>
+      <c r="E59" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:5">
       <c r="C60" s="5">
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>525596</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:4">
+        <v>433988</v>
+      </c>
+      <c r="E60" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:5">
       <c r="C61" s="5">
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>548660</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:4">
+        <v>470825</v>
+      </c>
+      <c r="E61" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:5">
       <c r="C62" s="5">
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>572286</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:4">
+        <v>509177</v>
+      </c>
+      <c r="E62" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:5">
       <c r="C63" s="5">
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>596478</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:4">
+        <v>549077</v>
+      </c>
+      <c r="E63" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:5">
       <c r="C64" s="5">
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>621237</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:4">
+        <v>590559</v>
+      </c>
+      <c r="E64" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:5">
       <c r="C65" s="5">
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>646568</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:4">
+        <v>633657</v>
+      </c>
+      <c r="E65" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:5">
       <c r="C66" s="5">
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>672473</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:4">
+        <v>678405</v>
+      </c>
+      <c r="E66" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:5">
       <c r="C67" s="5">
         <v>61</v>
       </c>
       <c r="D67" s="1">
-        <v>698955</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:4">
+        <v>724836</v>
+      </c>
+      <c r="E67" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:5">
       <c r="C68" s="5">
         <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>726017</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:4">
+        <v>772984</v>
+      </c>
+      <c r="E68" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:5">
       <c r="C69" s="5">
         <v>63</v>
       </c>
       <c r="D69" s="1">
-        <v>753662</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:4">
+        <v>822884</v>
+      </c>
+      <c r="E69" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:5">
       <c r="C70" s="5">
         <v>64</v>
       </c>
       <c r="D70" s="1">
-        <v>781892</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:4">
+        <v>874570</v>
+      </c>
+      <c r="E70" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:5">
       <c r="C71" s="5">
         <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>810712</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:4">
+        <v>928076</v>
+      </c>
+      <c r="E71" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:5">
       <c r="C72" s="5">
         <v>66</v>
       </c>
       <c r="D72" s="1">
-        <v>840122</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:4">
+        <v>983436</v>
+      </c>
+      <c r="E72" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:5">
       <c r="C73" s="5">
         <v>67</v>
       </c>
       <c r="D73" s="1">
-        <v>870127</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:4">
+        <v>1040686</v>
+      </c>
+      <c r="E73" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:5">
       <c r="C74" s="5">
         <v>68</v>
       </c>
       <c r="D74" s="1">
-        <v>900729</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:4">
+        <v>1099859</v>
+      </c>
+      <c r="E74" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:5">
       <c r="C75" s="5">
         <v>69</v>
       </c>
       <c r="D75" s="1">
-        <v>931930</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:4">
+        <v>1160991</v>
+      </c>
+      <c r="E75" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:5">
       <c r="C76" s="5">
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>963734</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:4">
+        <v>1224116</v>
+      </c>
+      <c r="E76" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:5">
       <c r="C77" s="5">
         <v>71</v>
       </c>
       <c r="D77" s="1">
-        <v>996142</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:4">
+        <v>1289270</v>
+      </c>
+      <c r="E77" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:5">
       <c r="C78" s="5">
         <v>72</v>
       </c>
       <c r="D78" s="1">
-        <v>1029158</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:4">
+        <v>1356487</v>
+      </c>
+      <c r="E78" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:5">
       <c r="C79" s="5">
         <v>73</v>
       </c>
       <c r="D79" s="1">
-        <v>1062784</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:4">
+        <v>1425803</v>
+      </c>
+      <c r="E79" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:5">
       <c r="C80" s="5">
         <v>74</v>
       </c>
       <c r="D80" s="1">
-        <v>1097023</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:4">
+        <v>1497253</v>
+      </c>
+      <c r="E80" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:5">
       <c r="C81" s="5">
         <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>1131877</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:4">
+        <v>1570872</v>
+      </c>
+      <c r="E81" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:5">
       <c r="C82" s="5">
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>1167348</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:4">
+        <v>1646696</v>
+      </c>
+      <c r="E82" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:5">
       <c r="C83" s="5">
         <v>77</v>
       </c>
       <c r="D83" s="1">
-        <v>1203440</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:4">
+        <v>1724760</v>
+      </c>
+      <c r="E83" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:5">
       <c r="C84" s="5">
         <v>78</v>
       </c>
       <c r="D84" s="1">
-        <v>1240154</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:4">
+        <v>1805100</v>
+      </c>
+      <c r="E84" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:5">
       <c r="C85" s="5">
         <v>79</v>
       </c>
       <c r="D85" s="1">
-        <v>1277494</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="3:4">
+        <v>1887752</v>
+      </c>
+      <c r="E85" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:5">
       <c r="C86" s="5">
         <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>1315461</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="3:4">
+        <v>1972751</v>
+      </c>
+      <c r="E86" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:5">
       <c r="C87" s="5">
         <v>81</v>
       </c>
       <c r="D87" s="1">
-        <v>1354058</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="3:4">
+        <v>2060134</v>
+      </c>
+      <c r="E87" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:5">
       <c r="C88" s="5">
         <v>82</v>
       </c>
       <c r="D88" s="1">
-        <v>1393288</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="3:4">
+        <v>2149936</v>
+      </c>
+      <c r="E88" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:5">
       <c r="C89" s="5">
         <v>83</v>
       </c>
       <c r="D89" s="1">
-        <v>1433152</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="3:4">
+        <v>2242194</v>
+      </c>
+      <c r="E89" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:5">
       <c r="C90" s="5">
         <v>84</v>
       </c>
       <c r="D90" s="1">
-        <v>1473653</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="3:4">
+        <v>2336944</v>
+      </c>
+      <c r="E90" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:5">
       <c r="C91" s="5">
         <v>85</v>
       </c>
       <c r="D91" s="1">
-        <v>1514793</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="3:4">
+        <v>2434222</v>
+      </c>
+      <c r="E91" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:5">
       <c r="C92" s="5">
         <v>86</v>
       </c>
       <c r="D92" s="1">
-        <v>1556576</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="3:4">
+        <v>2534064</v>
+      </c>
+      <c r="E92" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:5">
       <c r="C93" s="5">
         <v>87</v>
       </c>
       <c r="D93" s="1">
-        <v>1599002</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="3:4">
+        <v>2636507</v>
+      </c>
+      <c r="E93" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:5">
       <c r="C94" s="5">
         <v>88</v>
       </c>
       <c r="D94" s="1">
-        <v>1642074</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="3:4">
+        <v>2741588</v>
+      </c>
+      <c r="E94" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:5">
       <c r="C95" s="5">
         <v>89</v>
       </c>
       <c r="D95" s="1">
-        <v>1685795</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:4">
+        <v>2849343</v>
+      </c>
+      <c r="E95" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:5">
       <c r="C96" s="5">
         <v>90</v>
       </c>
       <c r="D96" s="1">
-        <v>1730166</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="3:4">
+        <v>2959809</v>
+      </c>
+      <c r="E96" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:5">
       <c r="C97" s="5">
         <v>91</v>
       </c>
       <c r="D97" s="1">
-        <v>1775191</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:4">
+        <v>3073022</v>
+      </c>
+      <c r="E97" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:5">
       <c r="C98" s="5">
         <v>92</v>
       </c>
       <c r="D98" s="1">
-        <v>1820870</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:4">
+        <v>3189020</v>
+      </c>
+      <c r="E98" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:5">
       <c r="C99" s="5">
         <v>93</v>
       </c>
       <c r="D99" s="1">
-        <v>1867207</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="3:4">
+        <v>3307839</v>
+      </c>
+      <c r="E99" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:5">
       <c r="C100" s="5">
         <v>94</v>
       </c>
       <c r="D100" s="1">
-        <v>1914203</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="3:4">
+        <v>3429517</v>
+      </c>
+      <c r="E100" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:5">
       <c r="C101" s="5">
         <v>95</v>
       </c>
       <c r="D101" s="1">
-        <v>1961860</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="3:4">
+        <v>3554091</v>
+      </c>
+      <c r="E101" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:5">
       <c r="C102" s="5">
         <v>96</v>
       </c>
       <c r="D102" s="1">
-        <v>2010181</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="3:4">
+        <v>3681597</v>
+      </c>
+      <c r="E102" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:5">
       <c r="C103" s="5">
         <v>97</v>
       </c>
       <c r="D103" s="1">
-        <v>2059168</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="3:4">
+        <v>3812074</v>
+      </c>
+      <c r="E103" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:5">
       <c r="C104" s="5">
         <v>98</v>
       </c>
       <c r="D104" s="1">
-        <v>2108823</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="3:4">
+        <v>3945558</v>
+      </c>
+      <c r="E104" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:5">
       <c r="C105" s="5">
         <v>99</v>
       </c>
       <c r="D105" s="1">
-        <v>2159148</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="3:4">
+        <v>4082087</v>
+      </c>
+      <c r="E105" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:5">
       <c r="C106" s="5">
         <v>100</v>
       </c>
       <c r="D106" s="1">
-        <v>2210145</v>
+        <v>4221698</v>
+      </c>
+      <c r="E106" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
